--- a/docs/pages/tools/appearance_table_maker/excel/c_キャスト男性ヘッドパーツ.xlsx
+++ b/docs/pages/tools/appearance_table_maker/excel/c_キャスト男性ヘッドパーツ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\PSNOVA\docs\pages\tools\appearance_table_maker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8986A009-AC06-4113-A44E-C31084BA0B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93C9716-33C5-41A5-B94E-54CA3F2B0267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>ジョーカ・ヘッド</t>
   </si>
@@ -97,6 +91,9 @@
   </si>
   <si>
     <t>リヴェン・ヘッド</t>
+  </si>
+  <si>
+    <t>ゲームスタート時から選択可能。</t>
   </si>
 </sst>
 </file>
@@ -421,130 +418,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
